--- a/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
+++ b/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\git\projeto-bdd\projeto-bdd\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C04D99-51DC-4D4A-885B-67DFE38B9BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC480BF-BAD1-424B-B4EC-7335CD781843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{0BA68D2D-8DA9-4321-A4B9-3BA70DFA1B5B}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>HP Z3600 Wireless Mouse</t>
   </si>
   <si>
-    <t>lucascarval54</t>
+    <t>lucascarval73</t>
   </si>
 </sst>
 </file>

--- a/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
+++ b/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\git\projeto-bdd\projeto-bdd\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.correia\git\projeto-bdd\projeto-bdd\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC480BF-BAD1-424B-B4EC-7335CD781843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1973925-44AB-46CA-AA28-6DE09D79B761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{0BA68D2D-8DA9-4321-A4B9-3BA70DFA1B5B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{0BA68D2D-8DA9-4321-A4B9-3BA70DFA1B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>HP Z3600 Wireless Mouse</t>
   </si>
   <si>
-    <t>lucascarval73</t>
+    <t>lucascarval74</t>
   </si>
 </sst>
 </file>

--- a/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
+++ b/projeto-bdd/src/main/java/br/com/rsinet/hub_bdd/testData/MassaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.correia\git\projeto-bdd\projeto-bdd\src\main\java\br\com\rsinet\hub_bdd\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1973925-44AB-46CA-AA28-6DE09D79B761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915ED8D3-5190-4818-B2DA-5FF7722F2A24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{0BA68D2D-8DA9-4321-A4B9-3BA70DFA1B5B}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>HP Z3600 Wireless Mouse</t>
   </si>
   <si>
-    <t>lucascarval74</t>
+    <t>lucascarval81</t>
   </si>
 </sst>
 </file>
